--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H2">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I2">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J2">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N2">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O2">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P2">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q2">
-        <v>488.367309894501</v>
+        <v>514.2335455822591</v>
       </c>
       <c r="R2">
-        <v>488.367309894501</v>
+        <v>2056.934182329037</v>
       </c>
       <c r="S2">
-        <v>0.2186315977069037</v>
+        <v>0.2088578052887834</v>
       </c>
       <c r="T2">
-        <v>0.2186315977069037</v>
+        <v>0.1481571112143766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H3">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I3">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J3">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N3">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O3">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P3">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q3">
-        <v>17.52450215226293</v>
+        <v>20.2549573812105</v>
       </c>
       <c r="R3">
-        <v>17.52450215226293</v>
+        <v>121.529744287263</v>
       </c>
       <c r="S3">
-        <v>0.007845344737335084</v>
+        <v>0.00822662383891631</v>
       </c>
       <c r="T3">
-        <v>0.007845344737335084</v>
+        <v>0.008753559542598207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H4">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I4">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J4">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N4">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O4">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P4">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q4">
-        <v>28.33417659223733</v>
+        <v>28.8898301013525</v>
       </c>
       <c r="R4">
-        <v>28.33417659223733</v>
+        <v>173.338980608115</v>
       </c>
       <c r="S4">
-        <v>0.01268460474843947</v>
+        <v>0.01173370847151222</v>
       </c>
       <c r="T4">
-        <v>0.01268460474843947</v>
+        <v>0.01248528166256856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H5">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I5">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J5">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N5">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O5">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P5">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q5">
-        <v>28.94970484676638</v>
+        <v>35.19976785178051</v>
       </c>
       <c r="R5">
-        <v>28.94970484676638</v>
+        <v>211.198607110683</v>
       </c>
       <c r="S5">
-        <v>0.01296016358088978</v>
+        <v>0.01429651239860923</v>
       </c>
       <c r="T5">
-        <v>0.01296016358088978</v>
+        <v>0.01521223955089756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H6">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I6">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J6">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N6">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O6">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P6">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q6">
-        <v>449.7268116900021</v>
+        <v>487.6061278966785</v>
       </c>
       <c r="R6">
-        <v>449.7268116900021</v>
+        <v>2925.636767380071</v>
       </c>
       <c r="S6">
-        <v>0.2013330732408305</v>
+        <v>0.198042983762465</v>
       </c>
       <c r="T6">
-        <v>0.2013330732408305</v>
+        <v>0.2107281290968703</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H7">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I7">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J7">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.6180693627074</v>
+        <v>13.9020255</v>
       </c>
       <c r="N7">
-        <v>12.6180693627074</v>
+        <v>27.804051</v>
       </c>
       <c r="O7">
-        <v>0.2710857412393206</v>
+        <v>0.2774485042540479</v>
       </c>
       <c r="P7">
-        <v>0.2710857412393206</v>
+        <v>0.2331036721985539</v>
       </c>
       <c r="Q7">
-        <v>376.7019551594351</v>
+        <v>417.0778019322503</v>
       </c>
       <c r="R7">
-        <v>376.7019551594351</v>
+        <v>1668.311207729001</v>
       </c>
       <c r="S7">
-        <v>0.1686414070868363</v>
+        <v>0.1693976503372731</v>
       </c>
       <c r="T7">
-        <v>0.1686414070868363</v>
+        <v>0.1201653272463133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H8">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I8">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J8">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N8">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O8">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P8">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q8">
-        <v>15.74660380152358</v>
+        <v>17.82985131974133</v>
       </c>
       <c r="R8">
-        <v>15.74660380152358</v>
+        <v>106.979107918448</v>
       </c>
       <c r="S8">
-        <v>0.007049417677707401</v>
+        <v>0.007241658283980624</v>
       </c>
       <c r="T8">
-        <v>0.007049417677707401</v>
+        <v>0.007705504495793784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H9">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I9">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J9">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N9">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O9">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P9">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q9">
-        <v>0.565048861010463</v>
+        <v>0.7022935039871111</v>
       </c>
       <c r="R9">
-        <v>0.565048861010463</v>
+        <v>6.320641535884</v>
       </c>
       <c r="S9">
-        <v>0.0002529602878044207</v>
+        <v>0.0002852390342314881</v>
       </c>
       <c r="T9">
-        <v>0.0002529602878044207</v>
+        <v>0.0004552639549787868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H10">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I10">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J10">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N10">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O10">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P10">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q10">
-        <v>0.9135891035310034</v>
+        <v>1.00168761798</v>
       </c>
       <c r="R10">
-        <v>0.9135891035310034</v>
+        <v>9.015188561820001</v>
       </c>
       <c r="S10">
-        <v>0.000408994298565458</v>
+        <v>0.0004068390311631001</v>
       </c>
       <c r="T10">
-        <v>0.000408994298565458</v>
+        <v>0.0006493471234260829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H11">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I11">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J11">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N11">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O11">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P11">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q11">
-        <v>0.9334358036608831</v>
+        <v>1.220470023160445</v>
       </c>
       <c r="R11">
-        <v>0.9334358036608831</v>
+        <v>10.984230208444</v>
       </c>
       <c r="S11">
-        <v>0.0004178792416619621</v>
+        <v>0.0004956982924352325</v>
       </c>
       <c r="T11">
-        <v>0.0004178792416619621</v>
+        <v>0.0007911735001428588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H12">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I12">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J12">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N12">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O12">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P12">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q12">
-        <v>14.50070424274441</v>
+        <v>16.90660758653645</v>
       </c>
       <c r="R12">
-        <v>14.50070424274441</v>
+        <v>152.159468278828</v>
       </c>
       <c r="S12">
-        <v>0.006491655096962471</v>
+        <v>0.00686667951894214</v>
       </c>
       <c r="T12">
-        <v>0.006491655096962471</v>
+        <v>0.01095976111329972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H13">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I13">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J13">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.6180693627074</v>
+        <v>13.9020255</v>
       </c>
       <c r="N13">
-        <v>12.6180693627074</v>
+        <v>27.804051</v>
       </c>
       <c r="O13">
-        <v>0.2710857412393206</v>
+        <v>0.2774485042540479</v>
       </c>
       <c r="P13">
-        <v>0.2710857412393206</v>
+        <v>0.2331036721985539</v>
       </c>
       <c r="Q13">
-        <v>12.14613738261132</v>
+        <v>14.461202037678</v>
       </c>
       <c r="R13">
-        <v>12.14613738261132</v>
+        <v>86.767212226068</v>
       </c>
       <c r="S13">
-        <v>0.005437565881511439</v>
+        <v>0.005873469254144493</v>
       </c>
       <c r="T13">
-        <v>0.005437565881511439</v>
+        <v>0.006249679558041689</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H14">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I14">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J14">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N14">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O14">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P14">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q14">
-        <v>265.516882255895</v>
+        <v>1.803491928069333</v>
       </c>
       <c r="R14">
-        <v>265.516882255895</v>
+        <v>10.820951568416</v>
       </c>
       <c r="S14">
-        <v>0.1188662283687711</v>
+        <v>0.0007324947374370448</v>
       </c>
       <c r="T14">
-        <v>0.1188662283687711</v>
+        <v>0.0007794128459433307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H15">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I15">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J15">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N15">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O15">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P15">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q15">
-        <v>9.527769529784342</v>
+        <v>0.0710370851031111</v>
       </c>
       <c r="R15">
-        <v>9.527769529784342</v>
+        <v>0.639333765928</v>
       </c>
       <c r="S15">
-        <v>0.004265378604743013</v>
+        <v>2.88519677804158E-05</v>
       </c>
       <c r="T15">
-        <v>0.004265378604743013</v>
+        <v>4.605001203998116E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H16">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I16">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J16">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N16">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O16">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P16">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q16">
-        <v>15.40480306039322</v>
+        <v>0.10132084116</v>
       </c>
       <c r="R16">
-        <v>15.40480306039322</v>
+        <v>0.91188757044</v>
       </c>
       <c r="S16">
-        <v>0.006896400797550379</v>
+        <v>4.115182429557374E-05</v>
       </c>
       <c r="T16">
-        <v>0.006896400797550379</v>
+        <v>6.568155138328832E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H17">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I17">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J17">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N17">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O17">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P17">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q17">
-        <v>15.73945515477331</v>
+        <v>0.1234507117164445</v>
       </c>
       <c r="R17">
-        <v>15.73945515477331</v>
+        <v>1.111056405448</v>
       </c>
       <c r="S17">
-        <v>0.007046217381477928</v>
+        <v>5.01399508685114E-05</v>
       </c>
       <c r="T17">
-        <v>0.007046217381477928</v>
+        <v>8.002730901239549E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H18">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I18">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J18">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N18">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O18">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P18">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q18">
-        <v>244.5087099146926</v>
+        <v>1.710105696708444</v>
       </c>
       <c r="R18">
-        <v>244.5087099146926</v>
+        <v>15.390951270376</v>
       </c>
       <c r="S18">
-        <v>0.1094613190089467</v>
+        <v>0.0006945655834684112</v>
       </c>
       <c r="T18">
-        <v>0.1094613190089467</v>
+        <v>0.001108581353088421</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H19">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I19">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J19">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.6180693627074</v>
+        <v>13.9020255</v>
       </c>
       <c r="N19">
-        <v>12.6180693627074</v>
+        <v>27.804051</v>
       </c>
       <c r="O19">
-        <v>0.2710857412393206</v>
+        <v>0.2774485042540479</v>
       </c>
       <c r="P19">
-        <v>0.2710857412393206</v>
+        <v>0.2331036721985539</v>
       </c>
       <c r="Q19">
-        <v>204.8063550675413</v>
+        <v>1.462752587076</v>
       </c>
       <c r="R19">
-        <v>204.8063550675413</v>
+        <v>8.776515522455998</v>
       </c>
       <c r="S19">
-        <v>0.09168742403871566</v>
+        <v>0.000594102227755799</v>
       </c>
       <c r="T19">
-        <v>0.09168742403871566</v>
+        <v>0.0006321559520503967</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H20">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I20">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J20">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N20">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O20">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P20">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q20">
-        <v>15.40424666744295</v>
+        <v>2.434950640662</v>
       </c>
       <c r="R20">
-        <v>15.40424666744295</v>
+        <v>14.609703843972</v>
       </c>
       <c r="S20">
-        <v>0.006896151712328646</v>
+        <v>0.0009889639662059566</v>
       </c>
       <c r="T20">
-        <v>0.006896151712328646</v>
+        <v>0.001052309566254375</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H21">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I21">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J21">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N21">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O21">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P21">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q21">
-        <v>0.5527637669603827</v>
+        <v>0.09590938178899999</v>
       </c>
       <c r="R21">
-        <v>0.5527637669603827</v>
+        <v>0.8631844361009999</v>
       </c>
       <c r="S21">
-        <v>0.0002474605139953816</v>
+        <v>3.895394059594705E-05</v>
       </c>
       <c r="T21">
-        <v>0.0002474605139953816</v>
+        <v>6.217355596333683E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H22">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I22">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J22">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N22">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O22">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P22">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q22">
-        <v>0.8937261698372052</v>
+        <v>0.136796424345</v>
       </c>
       <c r="R22">
-        <v>0.8937261698372052</v>
+        <v>1.231167819105</v>
       </c>
       <c r="S22">
-        <v>0.0004001020880496487</v>
+        <v>5.556036008444234E-05</v>
       </c>
       <c r="T22">
-        <v>0.0004001020880496487</v>
+        <v>8.867870885988439E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H23">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I23">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J23">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N23">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O23">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P23">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q23">
-        <v>0.9131413699774321</v>
+        <v>0.166674652049</v>
       </c>
       <c r="R23">
-        <v>0.9131413699774321</v>
+        <v>1.500071868441</v>
       </c>
       <c r="S23">
-        <v>0.0004087938578312381</v>
+        <v>6.769550979955897E-05</v>
       </c>
       <c r="T23">
-        <v>0.0004087938578312381</v>
+        <v>0.0001080473631832617</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H24">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I24">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J24">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N24">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O24">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P24">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q24">
-        <v>14.18543501966175</v>
+        <v>2.308866980213</v>
       </c>
       <c r="R24">
-        <v>14.18543501966175</v>
+        <v>20.779802821917</v>
       </c>
       <c r="S24">
-        <v>0.006350515809885152</v>
+        <v>0.0009377546337336122</v>
       </c>
       <c r="T24">
-        <v>0.006350515809885152</v>
+        <v>0.001496730223138999</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.142059</v>
+      </c>
+      <c r="H25">
+        <v>0.426177</v>
+      </c>
+      <c r="I25">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J25">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.9020255</v>
+      </c>
+      <c r="N25">
+        <v>27.804051</v>
+      </c>
+      <c r="O25">
+        <v>0.2774485042540479</v>
+      </c>
+      <c r="P25">
+        <v>0.2331036721985539</v>
+      </c>
+      <c r="Q25">
+        <v>1.9749078405045</v>
+      </c>
+      <c r="R25">
+        <v>11.849447043027</v>
+      </c>
+      <c r="S25">
+        <v>0.0008021159272064627</v>
+      </c>
+      <c r="T25">
+        <v>0.0008534934459569337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.833521</v>
+      </c>
+      <c r="H26">
+        <v>50.500563</v>
+      </c>
+      <c r="I26">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J26">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.140418</v>
+      </c>
+      <c r="N26">
+        <v>34.280836</v>
+      </c>
+      <c r="O26">
+        <v>0.342078450107084</v>
+      </c>
+      <c r="P26">
+        <v>0.2874037584536291</v>
+      </c>
+      <c r="Q26">
+        <v>288.533586351778</v>
+      </c>
+      <c r="R26">
+        <v>1731.201518110668</v>
+      </c>
+      <c r="S26">
+        <v>0.1171889545426285</v>
+      </c>
+      <c r="T26">
+        <v>0.1246951983474747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>16.833521</v>
+      </c>
+      <c r="H27">
+        <v>50.500563</v>
+      </c>
+      <c r="I27">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J27">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6751376666666666</v>
+      </c>
+      <c r="N27">
+        <v>2.025413</v>
+      </c>
+      <c r="O27">
+        <v>0.01347400317905004</v>
+      </c>
+      <c r="P27">
+        <v>0.01698066256671337</v>
+      </c>
+      <c r="Q27">
+        <v>11.36494408972433</v>
+      </c>
+      <c r="R27">
+        <v>102.284496807519</v>
+      </c>
+      <c r="S27">
+        <v>0.00461591294500614</v>
+      </c>
+      <c r="T27">
+        <v>0.007367360462578969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>16.833521</v>
+      </c>
+      <c r="H28">
+        <v>50.500563</v>
+      </c>
+      <c r="I28">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J28">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.962955</v>
+      </c>
+      <c r="N28">
+        <v>2.888865</v>
+      </c>
+      <c r="O28">
+        <v>0.01921809339322221</v>
+      </c>
+      <c r="P28">
+        <v>0.0242196736002921</v>
+      </c>
+      <c r="Q28">
+        <v>16.209923214555</v>
+      </c>
+      <c r="R28">
+        <v>145.889308930995</v>
+      </c>
+      <c r="S28">
+        <v>0.006583718653862282</v>
+      </c>
+      <c r="T28">
+        <v>0.01050813329564301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>16.833521</v>
+      </c>
+      <c r="H29">
+        <v>50.500563</v>
+      </c>
+      <c r="I29">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J29">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.173277666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.519833</v>
+      </c>
+      <c r="O29">
+        <v>0.02341559031749338</v>
+      </c>
+      <c r="P29">
+        <v>0.02950958469417469</v>
+      </c>
+      <c r="Q29">
+        <v>19.75039424066433</v>
+      </c>
+      <c r="R29">
+        <v>177.753548165979</v>
+      </c>
+      <c r="S29">
+        <v>0.008021693703437175</v>
+      </c>
+      <c r="T29">
+        <v>0.01280325468389939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>16.833521</v>
+      </c>
+      <c r="H30">
+        <v>50.500563</v>
+      </c>
+      <c r="I30">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J30">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>16.25287366666667</v>
+      </c>
+      <c r="N30">
+        <v>48.758621</v>
+      </c>
+      <c r="O30">
+        <v>0.3243653587491024</v>
+      </c>
+      <c r="P30">
+        <v>0.4087826484866369</v>
+      </c>
+      <c r="Q30">
+        <v>273.5930901781803</v>
+      </c>
+      <c r="R30">
+        <v>2462.337811603623</v>
+      </c>
+      <c r="S30">
+        <v>0.1111208182501782</v>
+      </c>
+      <c r="T30">
+        <v>0.1773575742652351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>16.833521</v>
+      </c>
+      <c r="H31">
+        <v>50.500563</v>
+      </c>
+      <c r="I31">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J31">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>13.9020255</v>
+      </c>
+      <c r="N31">
+        <v>27.804051</v>
+      </c>
+      <c r="O31">
+        <v>0.2774485042540479</v>
+      </c>
+      <c r="P31">
+        <v>0.2331036721985539</v>
+      </c>
+      <c r="Q31">
+        <v>234.0200381967855</v>
+      </c>
+      <c r="R31">
+        <v>1404.120229180713</v>
+      </c>
+      <c r="S31">
+        <v>0.09504808076267228</v>
+      </c>
+      <c r="T31">
+        <v>0.1011361465720469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.01536</v>
+      </c>
+      <c r="H32">
+        <v>2.03072</v>
+      </c>
+      <c r="I32">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J32">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>17.140418</v>
+      </c>
+      <c r="N32">
+        <v>34.280836</v>
+      </c>
+      <c r="O32">
+        <v>0.342078450107084</v>
+      </c>
+      <c r="P32">
+        <v>0.2874037584536291</v>
+      </c>
+      <c r="Q32">
+        <v>17.40369482048</v>
+      </c>
+      <c r="R32">
+        <v>69.61477928192001</v>
+      </c>
+      <c r="S32">
+        <v>0.007068573288048488</v>
+      </c>
+      <c r="T32">
+        <v>0.005014221983786276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.01536</v>
+      </c>
+      <c r="H33">
+        <v>2.03072</v>
+      </c>
+      <c r="I33">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J33">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6751376666666666</v>
+      </c>
+      <c r="N33">
+        <v>2.025413</v>
+      </c>
+      <c r="O33">
+        <v>0.01347400317905004</v>
+      </c>
+      <c r="P33">
+        <v>0.01698066256671337</v>
+      </c>
+      <c r="Q33">
+        <v>0.6855077812266667</v>
+      </c>
+      <c r="R33">
+        <v>4.11304668736</v>
+      </c>
+      <c r="S33">
+        <v>0.0002784214525197334</v>
+      </c>
+      <c r="T33">
+        <v>0.0002962550385540922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.01536</v>
+      </c>
+      <c r="H34">
+        <v>2.03072</v>
+      </c>
+      <c r="I34">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J34">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.962955</v>
+      </c>
+      <c r="N34">
+        <v>2.888865</v>
+      </c>
+      <c r="O34">
+        <v>0.01921809339322221</v>
+      </c>
+      <c r="P34">
+        <v>0.0242196736002921</v>
+      </c>
+      <c r="Q34">
+        <v>0.9777459888000001</v>
+      </c>
+      <c r="R34">
+        <v>5.8664759328</v>
+      </c>
+      <c r="S34">
+        <v>0.0003971150523046014</v>
+      </c>
+      <c r="T34">
+        <v>0.0004225512584112809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.941670233725161</v>
-      </c>
-      <c r="H25">
-        <v>0.941670233725161</v>
-      </c>
-      <c r="I25">
-        <v>0.01962236821434728</v>
-      </c>
-      <c r="J25">
-        <v>0.01962236821434728</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.6180693627074</v>
-      </c>
-      <c r="N25">
-        <v>12.6180693627074</v>
-      </c>
-      <c r="O25">
-        <v>0.2710857412393206</v>
-      </c>
-      <c r="P25">
-        <v>0.2710857412393206</v>
-      </c>
-      <c r="Q25">
-        <v>11.88206032594097</v>
-      </c>
-      <c r="R25">
-        <v>11.88206032594097</v>
-      </c>
-      <c r="S25">
-        <v>0.005319344232257217</v>
-      </c>
-      <c r="T25">
-        <v>0.005319344232257217</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.01536</v>
+      </c>
+      <c r="H35">
+        <v>2.03072</v>
+      </c>
+      <c r="I35">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J35">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.173277666666667</v>
+      </c>
+      <c r="N35">
+        <v>3.519833</v>
+      </c>
+      <c r="O35">
+        <v>0.02341559031749338</v>
+      </c>
+      <c r="P35">
+        <v>0.02950958469417469</v>
+      </c>
+      <c r="Q35">
+        <v>1.191299211626667</v>
+      </c>
+      <c r="R35">
+        <v>7.14779526976</v>
+      </c>
+      <c r="S35">
+        <v>0.0004838504623436755</v>
+      </c>
+      <c r="T35">
+        <v>0.0005148422870392192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.01536</v>
+      </c>
+      <c r="H36">
+        <v>2.03072</v>
+      </c>
+      <c r="I36">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J36">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>16.25287366666667</v>
+      </c>
+      <c r="N36">
+        <v>48.758621</v>
+      </c>
+      <c r="O36">
+        <v>0.3243653587491024</v>
+      </c>
+      <c r="P36">
+        <v>0.4087826484866369</v>
+      </c>
+      <c r="Q36">
+        <v>16.50251780618667</v>
+      </c>
+      <c r="R36">
+        <v>99.01510683712</v>
+      </c>
+      <c r="S36">
+        <v>0.006702557000315084</v>
+      </c>
+      <c r="T36">
+        <v>0.007131872435004303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.01536</v>
+      </c>
+      <c r="H37">
+        <v>2.03072</v>
+      </c>
+      <c r="I37">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J37">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>13.9020255</v>
+      </c>
+      <c r="N37">
+        <v>27.804051</v>
+      </c>
+      <c r="O37">
+        <v>0.2774485042540479</v>
+      </c>
+      <c r="P37">
+        <v>0.2331036721985539</v>
+      </c>
+      <c r="Q37">
+        <v>14.11556061168</v>
+      </c>
+      <c r="R37">
+        <v>56.46224244672</v>
+      </c>
+      <c r="S37">
+        <v>0.00573308574499577</v>
+      </c>
+      <c r="T37">
+        <v>0.00406686942414458</v>
       </c>
     </row>
   </sheetData>
